--- a/data/trans_orig/P35-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P35-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>128088</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109087</v>
+        <v>108891</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>149376</v>
+        <v>150459</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2305758507428322</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1963719426523655</v>
+        <v>0.1960194121755554</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2688965008245659</v>
+        <v>0.2708464575326023</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>210</v>
@@ -765,19 +765,19 @@
         <v>214022</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>188603</v>
+        <v>188408</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>240322</v>
+        <v>238977</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2428410024820605</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2139986699301917</v>
+        <v>0.213777457167446</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2726823512677992</v>
+        <v>0.2711556942814742</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>340</v>
@@ -786,19 +786,19 @@
         <v>342110</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>310814</v>
+        <v>313817</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>375138</v>
+        <v>379414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2380990298031502</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2163178830161381</v>
+        <v>0.2184075626460094</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2610851760526963</v>
+        <v>0.26406169231307</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>427425</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>406137</v>
+        <v>405054</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>446426</v>
+        <v>446622</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7694241492571678</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7311034991754346</v>
+        <v>0.7291535424673979</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8036280573476344</v>
+        <v>0.8039805878244449</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>636</v>
@@ -836,19 +836,19 @@
         <v>667304</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>641004</v>
+        <v>642349</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>692723</v>
+        <v>692918</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7571589975179395</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7273176487322008</v>
+        <v>0.7288443057185257</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7860013300698083</v>
+        <v>0.7862225428325539</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1052</v>
@@ -857,19 +857,19 @@
         <v>1094730</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1061702</v>
+        <v>1057426</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1126026</v>
+        <v>1123023</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7619009701968498</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7389148239473039</v>
+        <v>0.7359383076869297</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7836821169838619</v>
+        <v>0.7815924373539903</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>170966</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>149422</v>
+        <v>148749</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>195902</v>
+        <v>197441</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1645806206676709</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1438417649049529</v>
+        <v>0.1431931066265763</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1885850120084108</v>
+        <v>0.1900669612257575</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>207</v>
@@ -982,19 +982,19 @@
         <v>212740</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>186954</v>
+        <v>187431</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>236902</v>
+        <v>239696</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2104866019989933</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1849736956935348</v>
+        <v>0.1854457449880746</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2343920029336047</v>
+        <v>0.2371567260228394</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>380</v>
@@ -1003,19 +1003,19 @@
         <v>383706</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>346979</v>
+        <v>351370</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>418761</v>
+        <v>421407</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.187219035794099</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1692987720676516</v>
+        <v>0.1714414064140614</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2043230599900416</v>
+        <v>0.205614236111908</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>867831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>842895</v>
+        <v>841356</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>889375</v>
+        <v>890048</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8354193793323291</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8114149879915892</v>
+        <v>0.8099330387742425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8561582350950471</v>
+        <v>0.8568068933734236</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>776</v>
@@ -1053,19 +1053,19 @@
         <v>797968</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>773806</v>
+        <v>771012</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>823754</v>
+        <v>823277</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7895133980010067</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7656079970663953</v>
+        <v>0.7628432739771607</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8150263043064653</v>
+        <v>0.8145542550119254</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1620</v>
@@ -1074,19 +1074,19 @@
         <v>1665799</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1630744</v>
+        <v>1628098</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1702526</v>
+        <v>1698135</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.812780964205901</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7956769400099581</v>
+        <v>0.7943857638880918</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8307012279323484</v>
+        <v>0.8285585935859386</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>174423</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152065</v>
+        <v>153222</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>199669</v>
+        <v>200489</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1630687457283324</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1421665448312607</v>
+        <v>0.1432478408151251</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.18667099176163</v>
+        <v>0.1874378553199532</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>193</v>
@@ -1199,19 +1199,19 @@
         <v>197150</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>173351</v>
+        <v>173682</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>224147</v>
+        <v>223607</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2093659585116963</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1840915655366926</v>
+        <v>0.1844431448286448</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.238035884559807</v>
+        <v>0.2374621428093024</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>370</v>
@@ -1220,19 +1220,19 @@
         <v>371573</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>337082</v>
+        <v>340601</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>406483</v>
+        <v>407958</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1847444301286071</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1675955423196022</v>
+        <v>0.1693453307063153</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.202101243759087</v>
+        <v>0.2028348910226942</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>895206</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>869960</v>
+        <v>869140</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>917564</v>
+        <v>916407</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8369312542716676</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8133290082383701</v>
+        <v>0.8125621446800467</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8578334551687393</v>
+        <v>0.8567521591848749</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>737</v>
@@ -1270,19 +1270,19 @@
         <v>744504</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>717507</v>
+        <v>718047</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>768303</v>
+        <v>767972</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7906340414883036</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7619641154401932</v>
+        <v>0.7625378571906977</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8159084344633073</v>
+        <v>0.8155568551713553</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1611</v>
@@ -1291,19 +1291,19 @@
         <v>1639710</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1604800</v>
+        <v>1603325</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1674201</v>
+        <v>1670682</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8152555698713929</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7978987562409131</v>
+        <v>0.7971651089773059</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8324044576803978</v>
+        <v>0.8306546692936846</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>68731</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55134</v>
+        <v>54790</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85790</v>
+        <v>85011</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1632826435020158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1309823751181931</v>
+        <v>0.1301630655929224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2038101428891424</v>
+        <v>0.2019600203397022</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -1416,19 +1416,19 @@
         <v>59624</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46537</v>
+        <v>46565</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75063</v>
+        <v>74487</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1853176022539353</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1446439397423979</v>
+        <v>0.1447302108892558</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2333044494321688</v>
+        <v>0.2315135983518568</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -1437,19 +1437,19 @@
         <v>128354</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106905</v>
+        <v>109493</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>147503</v>
+        <v>150308</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1728286099274325</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1439477861170733</v>
+        <v>0.1474315180577935</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1986120556693572</v>
+        <v>0.2023892365275445</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>352199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>335140</v>
+        <v>335919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365796</v>
+        <v>366140</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8367173564979842</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7961898571108577</v>
+        <v>0.7980399796602978</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8690176248818069</v>
+        <v>0.8698369344070777</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>261</v>
@@ -1487,19 +1487,19 @@
         <v>262114</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>246675</v>
+        <v>247251</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>275201</v>
+        <v>275173</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8146823977460647</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7666955505678312</v>
+        <v>0.768486401648143</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8553560602576021</v>
+        <v>0.8552697891107442</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>602</v>
@@ -1508,19 +1508,19 @@
         <v>614314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>595165</v>
+        <v>592360</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>635763</v>
+        <v>633175</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8271713900725675</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8013879443306426</v>
+        <v>0.7976107634724556</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8560522138829256</v>
+        <v>0.8525684819422067</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>542208</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>503478</v>
+        <v>500928</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>583641</v>
+        <v>587937</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1757634995978575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1632088610165884</v>
+        <v>0.1623821014611136</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1891947226359005</v>
+        <v>0.1905872410141326</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>668</v>
@@ -1633,19 +1633,19 @@
         <v>683537</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>633763</v>
+        <v>637301</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>729761</v>
+        <v>731564</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2166226061363132</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2008484817581374</v>
+        <v>0.2019697486504486</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2312716751321069</v>
+        <v>0.2318432493888135</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1218</v>
@@ -1654,19 +1654,19 @@
         <v>1225744</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1162346</v>
+        <v>1165437</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1285779</v>
+        <v>1291043</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1964240413407152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1862646227900226</v>
+        <v>0.1867598157550025</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2060445119420634</v>
+        <v>0.206888153257255</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2542662</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2501229</v>
+        <v>2496933</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2581392</v>
+        <v>2583942</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8242365004021425</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8108052773640995</v>
+        <v>0.8094127589858674</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8367911389834116</v>
+        <v>0.8376178985388865</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2410</v>
@@ -1704,19 +1704,19 @@
         <v>2471889</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2425665</v>
+        <v>2423862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2521663</v>
+        <v>2518125</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7833773938636868</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7687283248678932</v>
+        <v>0.7681567506111865</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7991515182418628</v>
+        <v>0.7980302513495516</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4885</v>
@@ -1725,19 +1725,19 @@
         <v>5014552</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4954517</v>
+        <v>4949253</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5077950</v>
+        <v>5074859</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8035759586592848</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7939554880579368</v>
+        <v>0.7931118467427452</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8137353772099775</v>
+        <v>0.8132401842449976</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>262451</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>233874</v>
+        <v>234255</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>289036</v>
+        <v>292799</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2592408960356188</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2310129482687591</v>
+        <v>0.2313896604342929</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2855001989719332</v>
+        <v>0.2892175641669384</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>379</v>
@@ -2090,19 +2090,19 @@
         <v>412580</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>379750</v>
+        <v>379724</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>447356</v>
+        <v>442065</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3802170105456909</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3499622435276118</v>
+        <v>0.3499381585493012</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4122651339664628</v>
+        <v>0.407388417300374</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>620</v>
@@ -2111,19 +2111,19 @@
         <v>675032</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>632305</v>
+        <v>634734</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>722007</v>
+        <v>726952</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3218264482553341</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3014559904756857</v>
+        <v>0.3026143612302583</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3442224401428137</v>
+        <v>0.3465798579765311</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>749933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>723348</v>
+        <v>719585</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>778510</v>
+        <v>778129</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7407591039643812</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7144998010280669</v>
+        <v>0.7107824358330617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7689870517312409</v>
+        <v>0.7686103395657071</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>620</v>
@@ -2161,19 +2161,19 @@
         <v>672538</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>637762</v>
+        <v>643053</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>705368</v>
+        <v>705394</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6197829894543091</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5877348660335373</v>
+        <v>0.5926115826996261</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6500377564723884</v>
+        <v>0.6500618414506988</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1330</v>
@@ -2182,19 +2182,19 @@
         <v>1422470</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1375495</v>
+        <v>1370550</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1465197</v>
+        <v>1462768</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.678173551744666</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6557775598571862</v>
+        <v>0.6534201420234692</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6985440095243144</v>
+        <v>0.6973856387697418</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>240388</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>214323</v>
+        <v>215632</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>268569</v>
+        <v>267753</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2531991637999674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2257452926442301</v>
+        <v>0.2271240737418634</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2828822392157201</v>
+        <v>0.2820227931555166</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>331</v>
@@ -2307,19 +2307,19 @@
         <v>354347</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>324311</v>
+        <v>323294</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>388281</v>
+        <v>389018</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3342025235968181</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3058739382141933</v>
+        <v>0.3049149768464815</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3662071735225411</v>
+        <v>0.3669021510807011</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>553</v>
@@ -2328,19 +2328,19 @@
         <v>594735</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>556329</v>
+        <v>553367</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>640032</v>
+        <v>635152</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.295935320307259</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2768248558295103</v>
+        <v>0.275350832232238</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.318474635138348</v>
+        <v>0.3160465963659882</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>709014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>680833</v>
+        <v>681649</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>735079</v>
+        <v>733770</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7468008362000326</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7171177607842799</v>
+        <v>0.7179772068444835</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.77425470735577</v>
+        <v>0.7728759262581366</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>657</v>
@@ -2378,19 +2378,19 @@
         <v>705929</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>671995</v>
+        <v>671258</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>735965</v>
+        <v>736982</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6657974764031819</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6337928264774587</v>
+        <v>0.6330978489192987</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6941260617858067</v>
+        <v>0.6950850231535185</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1333</v>
@@ -2399,19 +2399,19 @@
         <v>1414944</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1369647</v>
+        <v>1374527</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1453350</v>
+        <v>1456312</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.704064679692741</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6815253648616522</v>
+        <v>0.6839534036340119</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7231751441704899</v>
+        <v>0.7246491677677621</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>231060</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>202122</v>
+        <v>204162</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>259359</v>
+        <v>259468</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2698062872137018</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2360151035005488</v>
+        <v>0.2383976668603263</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3028501623128012</v>
+        <v>0.3029770942829992</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>239</v>
@@ -2524,19 +2524,19 @@
         <v>258434</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>229423</v>
+        <v>232905</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>284821</v>
+        <v>290752</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3027542568706728</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2687686409339861</v>
+        <v>0.2728475411882255</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3336666837265125</v>
+        <v>0.3406147790761208</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>449</v>
@@ -2545,19 +2545,19 @@
         <v>489494</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>451749</v>
+        <v>449570</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>529268</v>
+        <v>527333</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2862534439047517</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2641802187426843</v>
+        <v>0.2629061119355745</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3095128993421009</v>
+        <v>0.308381546736523</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>625334</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>597035</v>
+        <v>596926</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654272</v>
+        <v>652232</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7301937127862982</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6971498376871988</v>
+        <v>0.6970229057170011</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7639848964994512</v>
+        <v>0.7616023331396741</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>560</v>
@@ -2595,19 +2595,19 @@
         <v>595175</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>568788</v>
+        <v>562857</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>624186</v>
+        <v>620704</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6972457431293272</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6663333162734874</v>
+        <v>0.6593852209238791</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7312313590660137</v>
+        <v>0.7271524588117744</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1153</v>
@@ -2616,19 +2616,19 @@
         <v>1220509</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1180735</v>
+        <v>1182670</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1258254</v>
+        <v>1260433</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7137465560952484</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6904871006578991</v>
+        <v>0.691618453263477</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7358197812573158</v>
+        <v>0.7370938880644254</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>124899</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>103280</v>
+        <v>104725</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>145045</v>
+        <v>147552</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2540049580452112</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2100388250567511</v>
+        <v>0.2129776105745361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2949753350139093</v>
+        <v>0.3000732080845908</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>135</v>
@@ -2741,19 +2741,19 @@
         <v>153974</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>132148</v>
+        <v>133428</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>175404</v>
+        <v>176269</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3519209233088994</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3020368316070673</v>
+        <v>0.3049620039394279</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4009005888132965</v>
+        <v>0.4028793079202441</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>246</v>
@@ -2762,19 +2762,19 @@
         <v>278873</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>249469</v>
+        <v>251802</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>308808</v>
+        <v>310843</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3001076127780559</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2684642530512358</v>
+        <v>0.2709750108013927</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3323222490653779</v>
+        <v>0.3345117441927375</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>366821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>346675</v>
+        <v>344168</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>388440</v>
+        <v>386995</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7459950419547888</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7050246649860914</v>
+        <v>0.6999267919154092</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7899611749432491</v>
+        <v>0.7870223894254639</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>263</v>
@@ -2812,19 +2812,19 @@
         <v>283550</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>262120</v>
+        <v>261255</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>305376</v>
+        <v>304096</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6480790766911005</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5990994111867036</v>
+        <v>0.5971206920797558</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6979631683929327</v>
+        <v>0.6950379960605719</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>602</v>
@@ -2833,19 +2833,19 @@
         <v>650371</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>620436</v>
+        <v>618401</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>679775</v>
+        <v>677442</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6998923872219441</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.667677750934622</v>
+        <v>0.6654882558072625</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7315357469487641</v>
+        <v>0.7290249891986074</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>858799</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>803378</v>
+        <v>806434</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>909652</v>
+        <v>913569</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2594637094039405</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2427196444366025</v>
+        <v>0.2436429376142177</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2748277092253418</v>
+        <v>0.2760110676384435</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1084</v>
@@ -2958,19 +2958,19 @@
         <v>1179335</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1123112</v>
+        <v>1123878</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1237297</v>
+        <v>1237452</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3431763572221006</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3268158658168269</v>
+        <v>0.3270389184048537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3600427629522517</v>
+        <v>0.3600880015997749</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1868</v>
@@ -2979,19 +2979,19 @@
         <v>2038134</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1961122</v>
+        <v>1965018</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2117499</v>
+        <v>2123828</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3021056559834681</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2906905190630198</v>
+        <v>0.2912679664137687</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3138696543694472</v>
+        <v>0.3148077689910309</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2451101</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2400248</v>
+        <v>2396331</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2506522</v>
+        <v>2503466</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7405362905960594</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7251722907746583</v>
+        <v>0.7239889323615564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7572803555633975</v>
+        <v>0.7563570623857823</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2100</v>
@@ -3029,19 +3029,19 @@
         <v>2257192</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2199230</v>
+        <v>2199075</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2313415</v>
+        <v>2312649</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6568236427778994</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6399572370477481</v>
+        <v>0.6399119984002249</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6731841341831731</v>
+        <v>0.6729610815951463</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4418</v>
@@ -3050,19 +3050,19 @@
         <v>4708293</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4628928</v>
+        <v>4622599</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4785305</v>
+        <v>4781409</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6978943440165319</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6861303456305528</v>
+        <v>0.6851922310089689</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7093094809369802</v>
+        <v>0.708732033586231</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>364705</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>334514</v>
+        <v>333539</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>400438</v>
+        <v>397017</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.327046249014257</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2999729840533499</v>
+        <v>0.2990988000607859</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.359089859106817</v>
+        <v>0.3560219368966788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>487</v>
@@ -3415,19 +3415,19 @@
         <v>525502</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>491017</v>
+        <v>488524</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>564728</v>
+        <v>559525</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4213188819755522</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3936706086572098</v>
+        <v>0.391671871218685</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4527679908751528</v>
+        <v>0.4485966232598554</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>833</v>
@@ -3436,19 +3436,19 @@
         <v>890207</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>840075</v>
+        <v>844291</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>938063</v>
+        <v>939347</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3768189062915392</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.355598357455824</v>
+        <v>0.3573831058292763</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3970759930810512</v>
+        <v>0.3976196973475006</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>750443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>714710</v>
+        <v>718131</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>780634</v>
+        <v>781609</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6729537509857431</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6409101408931822</v>
+        <v>0.6439780631033211</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7000270159466501</v>
+        <v>0.7009011999392141</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>689</v>
@@ -3486,19 +3486,19 @@
         <v>721776</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>682550</v>
+        <v>687753</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>756261</v>
+        <v>758754</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5786811180244479</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5472320091248473</v>
+        <v>0.5514033767401447</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6063293913427903</v>
+        <v>0.608328128781315</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1396</v>
@@ -3507,19 +3507,19 @@
         <v>1472219</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1424363</v>
+        <v>1423079</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1522351</v>
+        <v>1518135</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6231810937084608</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6029240069189488</v>
+        <v>0.6023803026524994</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.644401642544176</v>
+        <v>0.6426168941707237</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>251164</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>225511</v>
+        <v>223975</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>277776</v>
+        <v>279517</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2821336549685327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2533176469531698</v>
+        <v>0.2515922143663272</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3120263547807106</v>
+        <v>0.3139822239252665</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>320</v>
@@ -3632,19 +3632,19 @@
         <v>348002</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>317757</v>
+        <v>314210</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>376856</v>
+        <v>374681</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3537229860071281</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3229811531373544</v>
+        <v>0.3193759839385139</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3830519550348714</v>
+        <v>0.3808416128666129</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>565</v>
@@ -3653,19 +3653,19 @@
         <v>599166</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>555748</v>
+        <v>555951</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>644622</v>
+        <v>642125</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3197159695464649</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2965478877749445</v>
+        <v>0.2966564923549662</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3439715345916695</v>
+        <v>0.3426387329857714</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>639067</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>612455</v>
+        <v>610714</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>664720</v>
+        <v>666256</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7178663450314674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6879736452192894</v>
+        <v>0.6860177760747335</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7466823530468305</v>
+        <v>0.7484077856336728</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>611</v>
@@ -3703,19 +3703,19 @@
         <v>635823</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>606969</v>
+        <v>609144</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>666068</v>
+        <v>669615</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6462770139928719</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6169480449651286</v>
+        <v>0.6191583871333871</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6770188468626456</v>
+        <v>0.6806240160614861</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1229</v>
@@ -3724,19 +3724,19 @@
         <v>1274891</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1229435</v>
+        <v>1231932</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1318309</v>
+        <v>1318106</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6802840304535351</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6560284654083305</v>
+        <v>0.6573612670142286</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7034521122250555</v>
+        <v>0.7033435076450338</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>197680</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>173178</v>
+        <v>172211</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221168</v>
+        <v>221480</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2442261042351342</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2139552626786876</v>
+        <v>0.2127598052294156</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2732443877501055</v>
+        <v>0.2736299208149652</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>183</v>
@@ -3849,19 +3849,19 @@
         <v>197198</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>171912</v>
+        <v>172935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>221380</v>
+        <v>223244</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2585011083228637</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2253544814704782</v>
+        <v>0.2266953325067633</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2902010331334771</v>
+        <v>0.2926445386458873</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>374</v>
@@ -3870,19 +3870,19 @@
         <v>394877</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>361726</v>
+        <v>361159</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>429266</v>
+        <v>431076</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2511522228296698</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2300671751651124</v>
+        <v>0.2297066693438847</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.273024260066613</v>
+        <v>0.2741754294857724</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>611733</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>588245</v>
+        <v>587933</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>636235</v>
+        <v>637202</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7557738957648658</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7267556122498945</v>
+        <v>0.7263700791850347</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7860447373213124</v>
+        <v>0.7872401947705844</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>538</v>
@@ -3920,19 +3920,19 @@
         <v>565652</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>541470</v>
+        <v>539606</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>590938</v>
+        <v>589915</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7414988916771362</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7097989668665227</v>
+        <v>0.7073554613541128</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7746455185295211</v>
+        <v>0.7733046674932367</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1121</v>
@@ -3941,19 +3941,19 @@
         <v>1177386</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1142997</v>
+        <v>1141187</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1210537</v>
+        <v>1211104</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7488477771703302</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7269757399333872</v>
+        <v>0.7258245705142276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7699328248348879</v>
+        <v>0.7702933306561153</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>111217</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92035</v>
+        <v>93807</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133112</v>
+        <v>132791</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2229945206333616</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1845340243102062</v>
+        <v>0.1880861016205321</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2668933669851859</v>
+        <v>0.2662512446855079</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>128</v>
@@ -4066,19 +4066,19 @@
         <v>140861</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>117637</v>
+        <v>119420</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>160220</v>
+        <v>161430</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2908880786967043</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2429291985633193</v>
+        <v>0.2466105848708203</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3308641315092649</v>
+        <v>0.3333643977889796</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>226</v>
@@ -4087,19 +4087,19 @@
         <v>252079</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>224226</v>
+        <v>225808</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>282889</v>
+        <v>282617</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2564405928285172</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2281059524600186</v>
+        <v>0.2297152909591112</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2877840554811866</v>
+        <v>0.2875071191806103</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>387528</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>365633</v>
+        <v>365954</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>406710</v>
+        <v>404938</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7770054793666383</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7331066330148139</v>
+        <v>0.733748755314492</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8154659756897938</v>
+        <v>0.8119138983794678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>322</v>
@@ -4137,19 +4137,19 @@
         <v>343385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>324026</v>
+        <v>322816</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366609</v>
+        <v>364826</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7091119213032957</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.669135868490735</v>
+        <v>0.6666356022110205</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7570708014366806</v>
+        <v>0.75338941512918</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>688</v>
@@ -4158,19 +4158,19 @@
         <v>730913</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>700103</v>
+        <v>700375</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>758766</v>
+        <v>757184</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7435594071714828</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7122159445188134</v>
+        <v>0.7124928808193896</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7718940475399815</v>
+        <v>0.7702847090408889</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>924767</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>876174</v>
+        <v>873789</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>979565</v>
+        <v>974092</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2790873406505306</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2644226181417385</v>
+        <v>0.2637026362791755</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2956251801509764</v>
+        <v>0.2939733299559065</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1118</v>
@@ -4283,19 +4283,19 @@
         <v>1211562</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1152577</v>
+        <v>1155690</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1274598</v>
+        <v>1267859</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3483303560682357</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3313717913791182</v>
+        <v>0.3322668766298937</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3664535258442802</v>
+        <v>0.3645159175096025</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1998</v>
@@ -4304,19 +4304,19 @@
         <v>2136329</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2057615</v>
+        <v>2055257</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2214575</v>
+        <v>2212012</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3145482264440824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3029585693505646</v>
+        <v>0.302611322942386</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3260689606501855</v>
+        <v>0.3256916180663641</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2388771</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2333973</v>
+        <v>2339446</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2437364</v>
+        <v>2439749</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7209126593494694</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7043748198490234</v>
+        <v>0.7060266700440936</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7355773818582614</v>
+        <v>0.7362973637208247</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2160</v>
@@ -4354,19 +4354,19 @@
         <v>2266637</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2203601</v>
+        <v>2210340</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2325622</v>
+        <v>2322509</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6516696439317643</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6335464741557197</v>
+        <v>0.6354840824903975</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6686282086208818</v>
+        <v>0.6677331233701063</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4434</v>
@@ -4375,19 +4375,19 @@
         <v>4655408</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4577162</v>
+        <v>4579725</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4734122</v>
+        <v>4736480</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6854517735559176</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6739310393498146</v>
+        <v>0.674308381933636</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6970414306494354</v>
+        <v>0.6973886770576142</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>201179</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>179471</v>
+        <v>178643</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>226830</v>
+        <v>225193</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.403375618271949</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3598495577687667</v>
+        <v>0.3581903405441603</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4548061435738231</v>
+        <v>0.4515249890558116</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>430</v>
@@ -4740,19 +4740,19 @@
         <v>294690</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>271038</v>
+        <v>268997</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>316874</v>
+        <v>316448</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4730414876491798</v>
+        <v>0.4730414876491797</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4350756403460206</v>
+        <v>0.4317998366621137</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5086526943792263</v>
+        <v>0.5079680478451338</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>629</v>
@@ -4761,19 +4761,19 @@
         <v>495869</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>463452</v>
+        <v>464048</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>530798</v>
+        <v>531276</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4420662811528761</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4131667795092719</v>
+        <v>0.413698243366488</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4732052302326944</v>
+        <v>0.4736315266819718</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>297560</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>271909</v>
+        <v>273546</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>319268</v>
+        <v>320096</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.596624381728051</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5451938564261771</v>
+        <v>0.5484750109441886</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6401504422312335</v>
+        <v>0.6418096594558398</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>430</v>
@@ -4811,19 +4811,19 @@
         <v>328278</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>306094</v>
+        <v>306520</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>351930</v>
+        <v>353971</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5269585123508201</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4913473056207737</v>
+        <v>0.4920319521548657</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5649243596539792</v>
+        <v>0.5682001633378863</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>686</v>
@@ -4832,19 +4832,19 @@
         <v>625838</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>590909</v>
+        <v>590431</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>658255</v>
+        <v>657659</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5579337188471237</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5267947697673057</v>
+        <v>0.5263684733180282</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5868332204907281</v>
+        <v>0.5863017566335119</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>435216</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>400112</v>
+        <v>401068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>472047</v>
+        <v>466551</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4532852209600878</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.416723501493494</v>
+        <v>0.4177196131585145</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4916459811044381</v>
+        <v>0.4859210367026092</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>774</v>
@@ -4957,19 +4957,19 @@
         <v>526936</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>499812</v>
+        <v>498169</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>557590</v>
+        <v>554611</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4725346410474714</v>
+        <v>0.4725346410474715</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.448210695759188</v>
+        <v>0.4467370765849576</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5000241454936534</v>
+        <v>0.4973518874902575</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1222</v>
@@ -4978,19 +4978,19 @@
         <v>962152</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>916758</v>
+        <v>916024</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1006916</v>
+        <v>1004733</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4636287483063118</v>
+        <v>0.4636287483063119</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4417550726113597</v>
+        <v>0.4414014310278105</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4851988969187906</v>
+        <v>0.4841469204063103</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>524921</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>488090</v>
+        <v>493586</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>560025</v>
+        <v>559069</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5467147790399123</v>
+        <v>0.5467147790399124</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.508354018895562</v>
+        <v>0.5140789632973909</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5832764985065059</v>
+        <v>0.5822803868414854</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>832</v>
@@ -5028,19 +5028,19 @@
         <v>588191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>557537</v>
+        <v>560516</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>615315</v>
+        <v>616958</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5274653589525286</v>
+        <v>0.5274653589525287</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4999758545063466</v>
+        <v>0.5026481125097422</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5517893042408119</v>
+        <v>0.5532629234150422</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1294</v>
@@ -5049,19 +5049,19 @@
         <v>1113112</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1068348</v>
+        <v>1070531</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1158506</v>
+        <v>1159240</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5363712516936879</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5148011030812099</v>
+        <v>0.5158530795936898</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5582449273886402</v>
+        <v>0.5585985689721892</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>333078</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>303252</v>
+        <v>301024</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>365538</v>
+        <v>366129</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3182844506846649</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2897831480669997</v>
+        <v>0.2876544125141172</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3493029188198604</v>
+        <v>0.3498677374029144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>492</v>
@@ -5174,19 +5174,19 @@
         <v>342442</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>315800</v>
+        <v>316499</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>369558</v>
+        <v>369478</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3269973109120735</v>
+        <v>0.3269973109120734</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3015569498746671</v>
+        <v>0.30222388232293</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3528904983995284</v>
+        <v>0.3528136601057705</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>861</v>
@@ -5195,19 +5195,19 @@
         <v>675520</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>637826</v>
+        <v>634065</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>720165</v>
+        <v>713979</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3226424476323265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3046392012191642</v>
+        <v>0.3028425526650408</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3439659690637125</v>
+        <v>0.3410111506329339</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>713401</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>680941</v>
+        <v>680350</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>743227</v>
+        <v>745455</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.681715549315335</v>
+        <v>0.6817155493153351</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6506970811801395</v>
+        <v>0.6501322625970853</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7102168519330003</v>
+        <v>0.7123455874858829</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1023</v>
@@ -5245,19 +5245,19 @@
         <v>704790</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>677674</v>
+        <v>677754</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>731432</v>
+        <v>730733</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6730026890879266</v>
+        <v>0.6730026890879265</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6471095016004715</v>
+        <v>0.6471863398942304</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6984430501253327</v>
+        <v>0.6977761176770699</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1683</v>
@@ -5266,19 +5266,19 @@
         <v>1418191</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1373546</v>
+        <v>1379732</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1455885</v>
+        <v>1459646</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6773575523676735</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6560340309362876</v>
+        <v>0.6589888493670661</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6953607987808363</v>
+        <v>0.6971574473349592</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>228690</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>202843</v>
+        <v>202017</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>257228</v>
+        <v>257992</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2343306034329835</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2078458498504346</v>
+        <v>0.2069998716418316</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2635726772083321</v>
+        <v>0.2643554813084696</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>359</v>
@@ -5391,19 +5391,19 @@
         <v>234717</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>214406</v>
+        <v>212177</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>259580</v>
+        <v>258453</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2589148239894417</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2365104617956617</v>
+        <v>0.2340512387470204</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2863407792616495</v>
+        <v>0.2850978829726474</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>617</v>
@@ -5412,19 +5412,19 @@
         <v>463407</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>427324</v>
+        <v>427788</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>498876</v>
+        <v>500722</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2461696213921414</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2270018554753674</v>
+        <v>0.2272483972794607</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2650116128998452</v>
+        <v>0.2659920845972305</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>747239</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>718701</v>
+        <v>717937</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>773086</v>
+        <v>773912</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7656693965670167</v>
+        <v>0.7656693965670165</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7364273227916679</v>
+        <v>0.7356445186915304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7921541501495655</v>
+        <v>0.7930001283581684</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>958</v>
@@ -5462,19 +5462,19 @@
         <v>671824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>646961</v>
+        <v>648088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>692135</v>
+        <v>694364</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7410851760105583</v>
+        <v>0.7410851760105582</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7136592207383504</v>
+        <v>0.7149021170273528</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7634895382043384</v>
+        <v>0.7659487612529801</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1647</v>
@@ -5483,19 +5483,19 @@
         <v>1419063</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1383594</v>
+        <v>1381748</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1455146</v>
+        <v>1454682</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7538303786078586</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.734988387100155</v>
+        <v>0.7340079154027696</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7729981445246326</v>
+        <v>0.7727516027205393</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1198163</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1134700</v>
+        <v>1138980</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1251616</v>
+        <v>1261127</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3441727414133836</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3259430562086936</v>
+        <v>0.3271724492759676</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3595272601265296</v>
+        <v>0.3622590172926025</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2055</v>
@@ -5608,19 +5608,19 @@
         <v>1398784</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1344712</v>
+        <v>1347094</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1451728</v>
+        <v>1453242</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3788826715191553</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3642364214125996</v>
+        <v>0.36488154784078</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3932232111730752</v>
+        <v>0.3936334796374933</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3329</v>
@@ -5629,19 +5629,19 @@
         <v>2596948</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2522699</v>
+        <v>2523314</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2684619</v>
+        <v>2677137</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3620371980948435</v>
+        <v>0.3620371980948436</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3516862577308046</v>
+        <v>0.3517719884344798</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3742593893012973</v>
+        <v>0.3732162485484501</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2283121</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2229668</v>
+        <v>2220157</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2346584</v>
+        <v>2342304</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6558272585866165</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6404727398734704</v>
+        <v>0.6377409827073975</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6740569437913068</v>
+        <v>0.6728275507240322</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3243</v>
@@ -5679,19 +5679,19 @@
         <v>2293083</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2240139</v>
+        <v>2238625</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2347155</v>
+        <v>2344773</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6211173284808446</v>
+        <v>0.6211173284808447</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6067767888269247</v>
+        <v>0.6063665203625065</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6357635785874001</v>
+        <v>0.6351184521592195</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5310</v>
@@ -5700,19 +5700,19 @@
         <v>4576204</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4488533</v>
+        <v>4496015</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4650453</v>
+        <v>4649838</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6379628019051564</v>
+        <v>0.6379628019051566</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6257406106987026</v>
+        <v>0.62678375145155</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6483137422691957</v>
+        <v>0.6482280115655201</v>
       </c>
     </row>
     <row r="18">
